--- a/AstroPartyWindows/Функции в потоках.xlsx
+++ b/AstroPartyWindows/Функции в потоках.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GItHub\AstroParty\AstroPartyWindows\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{903C86FB-C672-4EF1-ADA5-4588E5B52E27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BC294AF-0E35-47E4-8E6A-A0A2426D35A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Нагрузка" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="282">
   <si>
     <t>Функция</t>
   </si>
@@ -904,6 +904,9 @@
   <si>
     <t>BombsChainReaction(void)</t>
   </si>
+  <si>
+    <t>PortalsCreateParticles(void)</t>
+  </si>
 </sst>
 </file>
 
@@ -1124,7 +1127,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1202,6 +1205,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1551,8 +1557,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:AU100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1574,107 +1580,107 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:47" x14ac:dyDescent="0.25">
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="39" t="s">
         <v>79</v>
       </c>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="M1" s="38" t="s">
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="M1" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="N1" s="38"/>
-      <c r="O1" s="38"/>
-      <c r="P1" s="38"/>
-      <c r="Q1" s="38"/>
-      <c r="AA1" s="38" t="s">
+      <c r="N1" s="39"/>
+      <c r="O1" s="39"/>
+      <c r="P1" s="39"/>
+      <c r="Q1" s="39"/>
+      <c r="AA1" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="AB1" s="38"/>
-      <c r="AC1" s="38"/>
-      <c r="AD1" s="38"/>
-      <c r="AE1" s="38"/>
-      <c r="AF1" s="38"/>
-      <c r="AG1" s="38"/>
-      <c r="AH1" s="38"/>
-      <c r="AI1" s="38"/>
-      <c r="AJ1" s="38"/>
-      <c r="AL1" s="38" t="s">
+      <c r="AB1" s="39"/>
+      <c r="AC1" s="39"/>
+      <c r="AD1" s="39"/>
+      <c r="AE1" s="39"/>
+      <c r="AF1" s="39"/>
+      <c r="AG1" s="39"/>
+      <c r="AH1" s="39"/>
+      <c r="AI1" s="39"/>
+      <c r="AJ1" s="39"/>
+      <c r="AL1" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="AM1" s="38"/>
-      <c r="AN1" s="38"/>
-      <c r="AO1" s="38"/>
-      <c r="AP1" s="38"/>
-      <c r="AQ1" s="38"/>
-      <c r="AR1" s="38"/>
-      <c r="AS1" s="38"/>
-      <c r="AT1" s="38"/>
-      <c r="AU1" s="38"/>
+      <c r="AM1" s="39"/>
+      <c r="AN1" s="39"/>
+      <c r="AO1" s="39"/>
+      <c r="AP1" s="39"/>
+      <c r="AQ1" s="39"/>
+      <c r="AR1" s="39"/>
+      <c r="AS1" s="39"/>
+      <c r="AT1" s="39"/>
+      <c r="AU1" s="39"/>
     </row>
     <row r="2" spans="2:47" x14ac:dyDescent="0.25">
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="F2" s="38" t="s">
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="F2" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
       <c r="M2" s="32"/>
-      <c r="N2" s="39" t="s">
+      <c r="N2" s="40" t="s">
         <v>72</v>
       </c>
-      <c r="O2" s="40"/>
-      <c r="P2" s="39" t="s">
+      <c r="O2" s="41"/>
+      <c r="P2" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="Q2" s="40"/>
-      <c r="AA2" s="38" t="s">
+      <c r="Q2" s="41"/>
+      <c r="AA2" s="39" t="s">
         <v>76</v>
       </c>
-      <c r="AB2" s="38"/>
-      <c r="AC2" s="38" t="s">
+      <c r="AB2" s="39"/>
+      <c r="AC2" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="AD2" s="38"/>
-      <c r="AE2" s="38" t="s">
+      <c r="AD2" s="39"/>
+      <c r="AE2" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="AF2" s="38"/>
-      <c r="AG2" s="38" t="s">
+      <c r="AF2" s="39"/>
+      <c r="AG2" s="39" t="s">
         <v>75</v>
       </c>
-      <c r="AH2" s="38"/>
-      <c r="AI2" s="38" t="s">
+      <c r="AH2" s="39"/>
+      <c r="AI2" s="39" t="s">
         <v>105</v>
       </c>
-      <c r="AJ2" s="38"/>
-      <c r="AL2" s="38" t="s">
+      <c r="AJ2" s="39"/>
+      <c r="AL2" s="39" t="s">
         <v>76</v>
       </c>
-      <c r="AM2" s="38"/>
-      <c r="AN2" s="38" t="s">
+      <c r="AM2" s="39"/>
+      <c r="AN2" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="AO2" s="38"/>
-      <c r="AP2" s="38" t="s">
+      <c r="AO2" s="39"/>
+      <c r="AP2" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="AQ2" s="38"/>
-      <c r="AR2" s="38" t="s">
+      <c r="AQ2" s="39"/>
+      <c r="AR2" s="39" t="s">
         <v>75</v>
       </c>
-      <c r="AS2" s="38"/>
-      <c r="AT2" s="38" t="s">
+      <c r="AS2" s="39"/>
+      <c r="AT2" s="39" t="s">
         <v>105</v>
       </c>
-      <c r="AU2" s="38"/>
+      <c r="AU2" s="39"/>
     </row>
     <row r="3" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
@@ -1798,11 +1804,11 @@
       </c>
       <c r="N4" s="22">
         <f>SUM($AB$4:$AB$100)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="O4" s="23">
         <f>SUM($AA$4:$AA$100)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="P4" s="22">
         <f>SUM($AM$4:$AM$100)</f>
@@ -4868,29 +4874,29 @@
     </row>
     <row r="34" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>98</v>
-      </c>
-      <c r="C34" s="2">
+        <v>281</v>
+      </c>
+      <c r="C34" s="38">
         <v>1</v>
       </c>
       <c r="D34" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AA34">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB34">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC34">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD34">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE34">
         <f t="shared" si="4"/>
@@ -4959,7 +4965,7 @@
     </row>
     <row r="35" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C35" s="2">
         <v>1</v>
@@ -5050,7 +5056,7 @@
     </row>
     <row r="36" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C36" s="2">
         <v>1</v>
@@ -5141,13 +5147,13 @@
     </row>
     <row r="37" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C37" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D37" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA37">
         <f t="shared" si="0"/>
@@ -5159,11 +5165,11 @@
       </c>
       <c r="AC37">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD37">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE37">
         <f t="shared" si="4"/>
@@ -5175,11 +5181,11 @@
       </c>
       <c r="AG37">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AH37">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI37">
         <f t="shared" si="8"/>
@@ -5232,10 +5238,10 @@
     </row>
     <row r="38" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C38" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D38" t="s">
         <v>15</v>
@@ -5266,7 +5272,7 @@
       </c>
       <c r="AG38">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH38">
         <f t="shared" si="7"/>
@@ -5323,7 +5329,7 @@
     </row>
     <row r="39" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C39" s="2">
         <v>1</v>
@@ -5414,21 +5420,21 @@
     </row>
     <row r="40" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C40" s="2">
         <v>1</v>
       </c>
       <c r="D40" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AA40">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB40">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC40">
         <f t="shared" si="2"/>
@@ -5448,11 +5454,11 @@
       </c>
       <c r="AG40">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH40">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI40">
         <f t="shared" si="8"/>
@@ -5505,9 +5511,9 @@
     </row>
     <row r="41" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>41</v>
-      </c>
-      <c r="C41" s="1">
+        <v>104</v>
+      </c>
+      <c r="C41" s="2">
         <v>1</v>
       </c>
       <c r="D41" t="s">
@@ -5596,29 +5602,29 @@
     </row>
     <row r="42" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C42" s="1">
         <v>1</v>
       </c>
       <c r="D42" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AA42">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB42">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC42">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD42">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE42">
         <f t="shared" si="4"/>
@@ -5687,13 +5693,13 @@
     </row>
     <row r="43" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C43" s="1">
         <v>1</v>
       </c>
       <c r="D43" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AA43">
         <f t="shared" si="0"/>
@@ -5705,19 +5711,19 @@
       </c>
       <c r="AC43">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD43">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE43">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF43">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG43">
         <f t="shared" si="6"/>
@@ -5778,7 +5784,7 @@
     </row>
     <row r="44" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C44" s="1">
         <v>1</v>
@@ -5869,13 +5875,13 @@
     </row>
     <row r="45" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C45" s="1">
         <v>1</v>
       </c>
       <c r="D45" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AA45">
         <f t="shared" si="0"/>
@@ -5895,19 +5901,19 @@
       </c>
       <c r="AE45">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF45">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG45">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH45">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI45">
         <f t="shared" si="8"/>
@@ -5960,7 +5966,7 @@
     </row>
     <row r="46" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C46" s="1">
         <v>1</v>
@@ -6051,13 +6057,13 @@
     </row>
     <row r="47" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C47" s="1">
         <v>1</v>
       </c>
       <c r="D47" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AA47">
         <f t="shared" si="0"/>
@@ -6077,19 +6083,19 @@
       </c>
       <c r="AE47">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF47">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG47">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH47">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI47">
         <f t="shared" si="8"/>
@@ -6142,21 +6148,21 @@
     </row>
     <row r="48" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="C48" s="1">
         <v>1</v>
       </c>
       <c r="D48" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AA48">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB48">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC48">
         <f t="shared" si="2"/>
@@ -6168,11 +6174,11 @@
       </c>
       <c r="AE48">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF48">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG48">
         <f t="shared" si="6"/>
@@ -6233,29 +6239,29 @@
     </row>
     <row r="49" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="C49" s="1">
         <v>1</v>
       </c>
       <c r="D49" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AA49">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB49">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC49">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD49">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE49">
         <f t="shared" si="4"/>
@@ -6324,7 +6330,7 @@
     </row>
     <row r="50" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C50" s="1">
         <v>1</v>
@@ -6415,29 +6421,29 @@
     </row>
     <row r="51" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C51" s="1">
         <v>1</v>
       </c>
       <c r="D51" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AA51">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB51">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC51">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD51">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE51">
         <f t="shared" si="4"/>
@@ -6506,7 +6512,7 @@
     </row>
     <row r="52" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C52" s="1">
         <v>1</v>
@@ -6597,7 +6603,7 @@
     </row>
     <row r="53" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C53" s="1">
         <v>1</v>
@@ -6688,21 +6694,21 @@
     </row>
     <row r="54" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="C54" s="1">
         <v>1</v>
       </c>
       <c r="D54" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AA54">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB54">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC54">
         <f t="shared" si="2"/>
@@ -6714,11 +6720,11 @@
       </c>
       <c r="AE54">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF54">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG54">
         <f t="shared" si="6"/>
@@ -6779,7 +6785,7 @@
     </row>
     <row r="55" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="C55" s="1">
         <v>1</v>
@@ -6870,13 +6876,13 @@
     </row>
     <row r="56" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C56" s="1">
         <v>1</v>
       </c>
       <c r="D56" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AA56">
         <f t="shared" si="0"/>
@@ -6896,19 +6902,19 @@
       </c>
       <c r="AE56">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF56">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG56">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH56">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI56">
         <f t="shared" si="8"/>
@@ -6961,7 +6967,7 @@
     </row>
     <row r="57" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C57" s="1">
         <v>1</v>
@@ -7052,13 +7058,13 @@
     </row>
     <row r="58" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C58" s="1">
         <v>1</v>
       </c>
       <c r="D58" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AA58">
         <f t="shared" si="0"/>
@@ -7078,19 +7084,19 @@
       </c>
       <c r="AE58">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF58">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG58">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH58">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI58">
         <f t="shared" si="8"/>
@@ -7142,6 +7148,15 @@
       </c>
     </row>
     <row r="59" spans="2:47" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>56</v>
+      </c>
+      <c r="C59" s="1">
+        <v>1</v>
+      </c>
+      <c r="D59" t="s">
+        <v>14</v>
+      </c>
       <c r="AA59">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -7160,11 +7175,11 @@
       </c>
       <c r="AE59">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF59">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG59">
         <f t="shared" si="6"/>
@@ -10587,6 +10602,8 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="AE2:AF2"/>
     <mergeCell ref="AG2:AH2"/>
     <mergeCell ref="AL2:AM2"/>
     <mergeCell ref="AL1:AU1"/>
@@ -10603,8 +10620,6 @@
     <mergeCell ref="AI2:AJ2"/>
     <mergeCell ref="AT2:AU2"/>
     <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AC2:AD2"/>
-    <mergeCell ref="AE2:AF2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10637,27 +10652,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:155" x14ac:dyDescent="0.25">
-      <c r="F1" s="38" t="s">
+      <c r="F1" s="39" t="s">
         <v>126</v>
       </c>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
-      <c r="N1" s="38"/>
-      <c r="O1" s="38"/>
-      <c r="P1" s="38"/>
-      <c r="Q1" s="38"/>
-      <c r="R1" s="38"/>
-      <c r="S1" s="38"/>
-      <c r="T1" s="38"/>
-      <c r="U1" s="38"/>
-      <c r="V1" s="38"/>
-      <c r="W1" s="38"/>
-      <c r="X1" s="38"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="39"/>
+      <c r="N1" s="39"/>
+      <c r="O1" s="39"/>
+      <c r="P1" s="39"/>
+      <c r="Q1" s="39"/>
+      <c r="R1" s="39"/>
+      <c r="S1" s="39"/>
+      <c r="T1" s="39"/>
+      <c r="U1" s="39"/>
+      <c r="V1" s="39"/>
+      <c r="W1" s="39"/>
+      <c r="X1" s="39"/>
     </row>
     <row r="2" spans="2:155" x14ac:dyDescent="0.25">
       <c r="F2" t="s">
@@ -10726,11 +10741,11 @@
       <c r="AF9" s="3"/>
     </row>
     <row r="10" spans="2:155" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="39" t="s">
+      <c r="B10" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="41"/>
-      <c r="D10" s="40"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="41"/>
       <c r="E10" s="20" t="s">
         <v>129</v>
       </c>
@@ -10869,94 +10884,94 @@
       <c r="AZ10" t="s">
         <v>125</v>
       </c>
-      <c r="BF10" s="38" t="s">
+      <c r="BF10" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="BG10" s="38"/>
-      <c r="BH10" s="38"/>
-      <c r="BI10" s="38"/>
-      <c r="BJ10" s="38"/>
-      <c r="BK10" s="38"/>
-      <c r="BL10" s="38"/>
-      <c r="BM10" s="38"/>
-      <c r="BN10" s="38"/>
-      <c r="BO10" s="38"/>
-      <c r="BP10" s="38"/>
-      <c r="BQ10" s="38"/>
-      <c r="BR10" s="38"/>
-      <c r="BS10" s="38"/>
-      <c r="BT10" s="38"/>
-      <c r="BU10" s="38"/>
-      <c r="BV10" s="38"/>
-      <c r="BW10" s="38"/>
-      <c r="BX10" s="38"/>
-      <c r="BY10" s="38"/>
-      <c r="CF10" s="38" t="s">
+      <c r="BG10" s="39"/>
+      <c r="BH10" s="39"/>
+      <c r="BI10" s="39"/>
+      <c r="BJ10" s="39"/>
+      <c r="BK10" s="39"/>
+      <c r="BL10" s="39"/>
+      <c r="BM10" s="39"/>
+      <c r="BN10" s="39"/>
+      <c r="BO10" s="39"/>
+      <c r="BP10" s="39"/>
+      <c r="BQ10" s="39"/>
+      <c r="BR10" s="39"/>
+      <c r="BS10" s="39"/>
+      <c r="BT10" s="39"/>
+      <c r="BU10" s="39"/>
+      <c r="BV10" s="39"/>
+      <c r="BW10" s="39"/>
+      <c r="BX10" s="39"/>
+      <c r="BY10" s="39"/>
+      <c r="CF10" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="CG10" s="38"/>
-      <c r="CH10" s="38"/>
-      <c r="CI10" s="38"/>
-      <c r="CJ10" s="38"/>
-      <c r="CK10" s="38"/>
-      <c r="CL10" s="38"/>
-      <c r="CM10" s="38"/>
-      <c r="CN10" s="38"/>
-      <c r="CO10" s="38"/>
-      <c r="CP10" s="38"/>
-      <c r="CQ10" s="38"/>
-      <c r="CR10" s="38"/>
-      <c r="CS10" s="38"/>
-      <c r="CT10" s="38"/>
-      <c r="CU10" s="38"/>
-      <c r="CV10" s="38"/>
-      <c r="CW10" s="38"/>
-      <c r="CX10" s="38"/>
-      <c r="CY10" s="38"/>
-      <c r="DF10" s="38" t="s">
+      <c r="CG10" s="39"/>
+      <c r="CH10" s="39"/>
+      <c r="CI10" s="39"/>
+      <c r="CJ10" s="39"/>
+      <c r="CK10" s="39"/>
+      <c r="CL10" s="39"/>
+      <c r="CM10" s="39"/>
+      <c r="CN10" s="39"/>
+      <c r="CO10" s="39"/>
+      <c r="CP10" s="39"/>
+      <c r="CQ10" s="39"/>
+      <c r="CR10" s="39"/>
+      <c r="CS10" s="39"/>
+      <c r="CT10" s="39"/>
+      <c r="CU10" s="39"/>
+      <c r="CV10" s="39"/>
+      <c r="CW10" s="39"/>
+      <c r="CX10" s="39"/>
+      <c r="CY10" s="39"/>
+      <c r="DF10" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="DG10" s="38"/>
-      <c r="DH10" s="38"/>
-      <c r="DI10" s="38"/>
-      <c r="DJ10" s="38"/>
-      <c r="DK10" s="38"/>
-      <c r="DL10" s="38"/>
-      <c r="DM10" s="38"/>
-      <c r="DN10" s="38"/>
-      <c r="DO10" s="38"/>
-      <c r="DP10" s="38"/>
-      <c r="DQ10" s="38"/>
-      <c r="DR10" s="38"/>
-      <c r="DS10" s="38"/>
-      <c r="DT10" s="38"/>
-      <c r="DU10" s="38"/>
-      <c r="DV10" s="38"/>
-      <c r="DW10" s="38"/>
-      <c r="DX10" s="38"/>
-      <c r="DY10" s="38"/>
-      <c r="EF10" s="38" t="s">
+      <c r="DG10" s="39"/>
+      <c r="DH10" s="39"/>
+      <c r="DI10" s="39"/>
+      <c r="DJ10" s="39"/>
+      <c r="DK10" s="39"/>
+      <c r="DL10" s="39"/>
+      <c r="DM10" s="39"/>
+      <c r="DN10" s="39"/>
+      <c r="DO10" s="39"/>
+      <c r="DP10" s="39"/>
+      <c r="DQ10" s="39"/>
+      <c r="DR10" s="39"/>
+      <c r="DS10" s="39"/>
+      <c r="DT10" s="39"/>
+      <c r="DU10" s="39"/>
+      <c r="DV10" s="39"/>
+      <c r="DW10" s="39"/>
+      <c r="DX10" s="39"/>
+      <c r="DY10" s="39"/>
+      <c r="EF10" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="EG10" s="38"/>
-      <c r="EH10" s="38"/>
-      <c r="EI10" s="38"/>
-      <c r="EJ10" s="38"/>
-      <c r="EK10" s="38"/>
-      <c r="EL10" s="38"/>
-      <c r="EM10" s="38"/>
-      <c r="EN10" s="38"/>
-      <c r="EO10" s="38"/>
-      <c r="EP10" s="38"/>
-      <c r="EQ10" s="38"/>
-      <c r="ER10" s="38"/>
-      <c r="ES10" s="38"/>
-      <c r="ET10" s="38"/>
-      <c r="EU10" s="38"/>
-      <c r="EV10" s="38"/>
-      <c r="EW10" s="38"/>
-      <c r="EX10" s="38"/>
-      <c r="EY10" s="38"/>
+      <c r="EG10" s="39"/>
+      <c r="EH10" s="39"/>
+      <c r="EI10" s="39"/>
+      <c r="EJ10" s="39"/>
+      <c r="EK10" s="39"/>
+      <c r="EL10" s="39"/>
+      <c r="EM10" s="39"/>
+      <c r="EN10" s="39"/>
+      <c r="EO10" s="39"/>
+      <c r="EP10" s="39"/>
+      <c r="EQ10" s="39"/>
+      <c r="ER10" s="39"/>
+      <c r="ES10" s="39"/>
+      <c r="ET10" s="39"/>
+      <c r="EU10" s="39"/>
+      <c r="EV10" s="39"/>
+      <c r="EW10" s="39"/>
+      <c r="EX10" s="39"/>
+      <c r="EY10" s="39"/>
     </row>
     <row r="11" spans="2:155" ht="30" x14ac:dyDescent="0.25">
       <c r="B11" s="7" t="s">
@@ -49177,12 +49192,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="EF10:EY10"/>
     <mergeCell ref="B10:D10"/>
     <mergeCell ref="F1:X1"/>
     <mergeCell ref="BF10:BY10"/>
     <mergeCell ref="CF10:CY10"/>
     <mergeCell ref="DF10:DY10"/>
-    <mergeCell ref="EF10:EY10"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="F12:X64">
